--- a/timesheet/T26TimeSheet.xlsx
+++ b/timesheet/T26TimeSheet.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\chungwm2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\chungwm2\Documents\Timeshsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="8670"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="Blank Form" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -74,22 +74,6 @@
   </si>
   <si>
     <t>Timesheet End Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commitment Ref.(if applicable)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Certified On</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -174,10 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">Name of T-contractor </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Signature</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -257,11 +237,31 @@
     <t>Contract Ref.: GCIO 5/2 (T26)</t>
   </si>
   <si>
+    <t>(T26 - Timesheet, May 2023)</t>
+  </si>
+  <si>
+    <t>Signature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Designation</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>(T26 - Timesheet, Feb 2019)</t>
+    <t>Commitment Ref.(if applicable)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certified On</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -321,13 +321,15 @@
     </font>
     <font>
       <b/>
-      <sz val="6"/>
-      <name val="Courier New"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
+      <color indexed="12"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -376,6 +378,12 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -559,11 +567,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -571,15 +583,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -588,15 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -615,10 +609,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,17 +641,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -700,19 +688,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,9 +755,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -941,28 +953,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="2"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1767,8 +1792,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1792,1575 +1817,1575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="44"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+    </row>
+    <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="J12" s="137"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="137"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="144"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="135" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="137"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="65"/>
+    </row>
+    <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="76"/>
+      <c r="J18" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="86"/>
+      <c r="P18" s="11"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="93"/>
+      <c r="N19" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="96"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91">
+        <v>1</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="90">
+        <v>0</v>
+      </c>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90">
+        <v>0</v>
+      </c>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90">
+        <v>0</v>
+      </c>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90">
+        <v>0</v>
+      </c>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90">
+        <v>0</v>
+      </c>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90">
+        <v>0</v>
+      </c>
+      <c r="O20" s="90"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91">
+        <v>2</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="90">
+        <v>0</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90">
+        <v>0</v>
+      </c>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90">
+        <v>0</v>
+      </c>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90">
+        <v>0</v>
+      </c>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90">
+        <v>0</v>
+      </c>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90">
+        <v>0</v>
+      </c>
+      <c r="O21" s="90"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91">
+        <v>3</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="90">
+        <v>0</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90">
+        <v>0</v>
+      </c>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90">
+        <v>0</v>
+      </c>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90">
+        <v>0</v>
+      </c>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90">
+        <v>0</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90">
+        <v>0</v>
+      </c>
+      <c r="O22" s="90"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91">
+        <v>4</v>
+      </c>
+      <c r="B23" s="91"/>
+      <c r="C23" s="90">
+        <v>0</v>
+      </c>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90">
+        <v>0</v>
+      </c>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90">
+        <v>0</v>
+      </c>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90">
+        <v>0</v>
+      </c>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90">
+        <v>0</v>
+      </c>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90">
+        <v>0</v>
+      </c>
+      <c r="O23" s="90"/>
+    </row>
+    <row r="24" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="91">
+        <v>5</v>
+      </c>
+      <c r="B24" s="91"/>
+      <c r="C24" s="90">
+        <v>0</v>
+      </c>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90">
+        <v>0</v>
+      </c>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90">
+        <v>0</v>
+      </c>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90">
+        <v>0</v>
+      </c>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90">
+        <v>0</v>
+      </c>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90">
+        <v>0</v>
+      </c>
+      <c r="O24" s="90"/>
+    </row>
+    <row r="25" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="91">
+        <v>6</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="90">
+        <v>0</v>
+      </c>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90">
+        <v>0</v>
+      </c>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90">
+        <v>0</v>
+      </c>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90">
+        <v>0</v>
+      </c>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90">
+        <v>0</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90">
+        <v>0</v>
+      </c>
+      <c r="O25" s="90"/>
+    </row>
+    <row r="26" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="91">
+        <v>7</v>
+      </c>
+      <c r="B26" s="91"/>
+      <c r="C26" s="90">
+        <v>0</v>
+      </c>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90">
+        <v>0</v>
+      </c>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90">
+        <v>0</v>
+      </c>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90">
+        <v>0</v>
+      </c>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90">
+        <v>0</v>
+      </c>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90">
+        <v>0</v>
+      </c>
+      <c r="O26" s="90"/>
+    </row>
+    <row r="27" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91">
+        <v>8</v>
+      </c>
+      <c r="B27" s="91"/>
+      <c r="C27" s="90">
+        <v>0</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90">
+        <v>0</v>
+      </c>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90">
+        <v>0</v>
+      </c>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90">
+        <v>0</v>
+      </c>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90">
+        <v>0</v>
+      </c>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90">
+        <v>0</v>
+      </c>
+      <c r="O27" s="90"/>
+    </row>
+    <row r="28" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="91">
+        <v>9</v>
+      </c>
+      <c r="B28" s="91"/>
+      <c r="C28" s="90">
+        <v>0</v>
+      </c>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90">
+        <v>0</v>
+      </c>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90">
+        <v>0</v>
+      </c>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90">
+        <v>0</v>
+      </c>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90">
+        <v>0</v>
+      </c>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90">
+        <v>0</v>
+      </c>
+      <c r="O28" s="90"/>
+    </row>
+    <row r="29" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="91">
+        <v>10</v>
+      </c>
+      <c r="B29" s="91"/>
+      <c r="C29" s="90">
+        <v>0</v>
+      </c>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90">
+        <v>0</v>
+      </c>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90">
+        <v>0</v>
+      </c>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90">
+        <v>0</v>
+      </c>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90">
+        <v>0</v>
+      </c>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90">
+        <v>0</v>
+      </c>
+      <c r="O29" s="90"/>
+    </row>
+    <row r="30" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="91">
+        <v>11</v>
+      </c>
+      <c r="B30" s="91"/>
+      <c r="C30" s="90">
+        <v>0</v>
+      </c>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90">
+        <v>0</v>
+      </c>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90">
+        <v>0</v>
+      </c>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90">
+        <v>0</v>
+      </c>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90">
+        <v>0</v>
+      </c>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90">
+        <v>0</v>
+      </c>
+      <c r="O30" s="90"/>
+    </row>
+    <row r="31" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="91">
+        <v>12</v>
+      </c>
+      <c r="B31" s="91"/>
+      <c r="C31" s="90">
+        <v>0</v>
+      </c>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90">
+        <v>0</v>
+      </c>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90">
+        <v>0</v>
+      </c>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90">
+        <v>0</v>
+      </c>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90">
+        <v>0</v>
+      </c>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90">
+        <v>0</v>
+      </c>
+      <c r="O31" s="90"/>
+    </row>
+    <row r="32" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="91">
+        <v>13</v>
+      </c>
+      <c r="B32" s="91"/>
+      <c r="C32" s="90">
+        <v>0</v>
+      </c>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90">
+        <v>0</v>
+      </c>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90">
+        <v>0</v>
+      </c>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90">
+        <v>0</v>
+      </c>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90">
+        <v>0</v>
+      </c>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90">
+        <v>0</v>
+      </c>
+      <c r="O32" s="90"/>
+    </row>
+    <row r="33" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91">
+        <v>14</v>
+      </c>
+      <c r="B33" s="91"/>
+      <c r="C33" s="90">
+        <v>0</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90">
+        <v>0</v>
+      </c>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90">
+        <v>0</v>
+      </c>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90">
+        <v>0</v>
+      </c>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90">
+        <v>0</v>
+      </c>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90">
+        <v>0</v>
+      </c>
+      <c r="O33" s="90"/>
+    </row>
+    <row r="34" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91">
+        <v>15</v>
+      </c>
+      <c r="B34" s="91"/>
+      <c r="C34" s="90">
+        <v>0</v>
+      </c>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90">
+        <v>0</v>
+      </c>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90">
+        <v>0</v>
+      </c>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90">
+        <v>0</v>
+      </c>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90">
+        <v>0</v>
+      </c>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90">
+        <v>0</v>
+      </c>
+      <c r="O34" s="90"/>
+    </row>
+    <row r="35" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91">
+        <v>16</v>
+      </c>
+      <c r="B35" s="91"/>
+      <c r="C35" s="90">
+        <v>0</v>
+      </c>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90">
+        <v>0</v>
+      </c>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90">
+        <v>0</v>
+      </c>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90">
+        <v>0</v>
+      </c>
+      <c r="K35" s="90"/>
+      <c r="L35" s="90">
+        <v>0</v>
+      </c>
+      <c r="M35" s="90"/>
+      <c r="N35" s="90">
+        <v>0</v>
+      </c>
+      <c r="O35" s="90"/>
+    </row>
+    <row r="36" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="91">
+        <v>17</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="90">
+        <v>0</v>
+      </c>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90">
+        <v>0</v>
+      </c>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90">
+        <v>0</v>
+      </c>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90">
+        <v>0</v>
+      </c>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90">
+        <v>0</v>
+      </c>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90">
+        <v>0</v>
+      </c>
+      <c r="O36" s="90"/>
+    </row>
+    <row r="37" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="91">
+        <v>18</v>
+      </c>
+      <c r="B37" s="91"/>
+      <c r="C37" s="90">
+        <v>0</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90">
+        <v>0</v>
+      </c>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90">
+        <v>0</v>
+      </c>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90">
+        <v>0</v>
+      </c>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90">
+        <v>0</v>
+      </c>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90">
+        <v>0</v>
+      </c>
+      <c r="O37" s="90"/>
+    </row>
+    <row r="38" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91">
+        <v>19</v>
+      </c>
+      <c r="B38" s="91"/>
+      <c r="C38" s="90">
+        <v>0</v>
+      </c>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90">
+        <v>0</v>
+      </c>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90">
+        <v>0</v>
+      </c>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90">
+        <v>0</v>
+      </c>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90">
+        <v>0</v>
+      </c>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90">
+        <v>0</v>
+      </c>
+      <c r="O38" s="90"/>
+    </row>
+    <row r="39" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="91">
+        <v>20</v>
+      </c>
+      <c r="B39" s="91"/>
+      <c r="C39" s="90">
+        <v>0</v>
+      </c>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90">
+        <v>0</v>
+      </c>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90">
+        <v>0</v>
+      </c>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90">
+        <v>0</v>
+      </c>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90">
+        <v>0</v>
+      </c>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90">
+        <v>0</v>
+      </c>
+      <c r="O39" s="90"/>
+    </row>
+    <row r="40" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="91">
+        <v>21</v>
+      </c>
+      <c r="B40" s="91"/>
+      <c r="C40" s="90">
+        <v>0</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90">
+        <v>0</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90">
+        <v>0</v>
+      </c>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90">
+        <v>0</v>
+      </c>
+      <c r="K40" s="90"/>
+      <c r="L40" s="90">
+        <v>0</v>
+      </c>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90">
+        <v>0</v>
+      </c>
+      <c r="O40" s="90"/>
+    </row>
+    <row r="41" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91">
+        <v>22</v>
+      </c>
+      <c r="B41" s="91"/>
+      <c r="C41" s="90">
+        <v>0</v>
+      </c>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90">
+        <v>0</v>
+      </c>
+      <c r="F41" s="90"/>
+      <c r="G41" s="90"/>
+      <c r="H41" s="90">
+        <v>0</v>
+      </c>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90">
+        <v>0</v>
+      </c>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90">
+        <v>0</v>
+      </c>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90">
+        <v>0</v>
+      </c>
+      <c r="O41" s="90"/>
+    </row>
+    <row r="42" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="91">
+        <v>23</v>
+      </c>
+      <c r="B42" s="91"/>
+      <c r="C42" s="90">
+        <v>0</v>
+      </c>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90">
+        <v>0</v>
+      </c>
+      <c r="F42" s="90"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="90">
+        <v>0</v>
+      </c>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90">
+        <v>0</v>
+      </c>
+      <c r="K42" s="90"/>
+      <c r="L42" s="90">
+        <v>0</v>
+      </c>
+      <c r="M42" s="90"/>
+      <c r="N42" s="90">
+        <v>0</v>
+      </c>
+      <c r="O42" s="90"/>
+    </row>
+    <row r="43" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="91">
+        <v>24</v>
+      </c>
+      <c r="B43" s="91"/>
+      <c r="C43" s="90">
+        <v>0</v>
+      </c>
+      <c r="D43" s="90"/>
+      <c r="E43" s="90">
+        <v>0</v>
+      </c>
+      <c r="F43" s="90"/>
+      <c r="G43" s="90"/>
+      <c r="H43" s="90">
+        <v>0</v>
+      </c>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90">
+        <v>0</v>
+      </c>
+      <c r="K43" s="90"/>
+      <c r="L43" s="90">
+        <v>0</v>
+      </c>
+      <c r="M43" s="90"/>
+      <c r="N43" s="90">
+        <v>0</v>
+      </c>
+      <c r="O43" s="90"/>
+    </row>
+    <row r="44" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="91">
+        <v>25</v>
+      </c>
+      <c r="B44" s="91"/>
+      <c r="C44" s="90">
+        <v>0</v>
+      </c>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90">
+        <v>0</v>
+      </c>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90">
+        <v>0</v>
+      </c>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90">
+        <v>0</v>
+      </c>
+      <c r="K44" s="90"/>
+      <c r="L44" s="90">
+        <v>0</v>
+      </c>
+      <c r="M44" s="90"/>
+      <c r="N44" s="90">
+        <v>0</v>
+      </c>
+      <c r="O44" s="90"/>
+    </row>
+    <row r="45" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="91">
+        <v>26</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="90">
+        <v>0</v>
+      </c>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90">
+        <v>0</v>
+      </c>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90">
+        <v>0</v>
+      </c>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90">
+        <v>0</v>
+      </c>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90">
+        <v>0</v>
+      </c>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90">
+        <v>0</v>
+      </c>
+      <c r="O45" s="90"/>
+    </row>
+    <row r="46" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="91">
+        <v>27</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="90">
+        <v>0</v>
+      </c>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90">
+        <v>0</v>
+      </c>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90">
+        <v>0</v>
+      </c>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90">
+        <v>0</v>
+      </c>
+      <c r="K46" s="90"/>
+      <c r="L46" s="90">
+        <v>0</v>
+      </c>
+      <c r="M46" s="90"/>
+      <c r="N46" s="90">
+        <v>0</v>
+      </c>
+      <c r="O46" s="90"/>
+    </row>
+    <row r="47" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="91">
+        <v>28</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="90">
+        <v>0</v>
+      </c>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90">
+        <v>0</v>
+      </c>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90">
+        <v>0</v>
+      </c>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90">
+        <v>0</v>
+      </c>
+      <c r="K47" s="90"/>
+      <c r="L47" s="90">
+        <v>0</v>
+      </c>
+      <c r="M47" s="90"/>
+      <c r="N47" s="90">
+        <v>0</v>
+      </c>
+      <c r="O47" s="90"/>
+    </row>
+    <row r="48" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="91">
+        <v>29</v>
+      </c>
+      <c r="B48" s="91"/>
+      <c r="C48" s="90">
+        <v>0</v>
+      </c>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90">
+        <v>0</v>
+      </c>
+      <c r="F48" s="90"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90">
+        <v>0</v>
+      </c>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90">
+        <v>0</v>
+      </c>
+      <c r="K48" s="90"/>
+      <c r="L48" s="90">
+        <v>0</v>
+      </c>
+      <c r="M48" s="90"/>
+      <c r="N48" s="90">
+        <v>0</v>
+      </c>
+      <c r="O48" s="90"/>
+    </row>
+    <row r="49" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="91">
+        <v>30</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="90">
+        <v>0</v>
+      </c>
+      <c r="D49" s="90"/>
+      <c r="E49" s="90">
+        <v>0</v>
+      </c>
+      <c r="F49" s="90"/>
+      <c r="G49" s="90"/>
+      <c r="H49" s="90">
+        <v>0</v>
+      </c>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90">
+        <v>0</v>
+      </c>
+      <c r="K49" s="90"/>
+      <c r="L49" s="90">
+        <v>0</v>
+      </c>
+      <c r="M49" s="90"/>
+      <c r="N49" s="90">
+        <v>0</v>
+      </c>
+      <c r="O49" s="90"/>
+    </row>
+    <row r="50" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="91">
+        <v>31</v>
+      </c>
+      <c r="B50" s="91"/>
+      <c r="C50" s="90">
+        <v>0</v>
+      </c>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90">
+        <v>0</v>
+      </c>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="102">
+        <v>0</v>
+      </c>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102">
+        <v>0</v>
+      </c>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102">
+        <v>0</v>
+      </c>
+      <c r="M50" s="102"/>
+      <c r="N50" s="102">
+        <v>0</v>
+      </c>
+      <c r="O50" s="102"/>
+    </row>
+    <row r="51" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="103">
+        <f>SUM(C20:D50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="104"/>
+      <c r="E51" s="103">
+        <f>SUM(E20:G50)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="104"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="47"/>
+      <c r="K51" s="47"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="48"/>
+    </row>
+    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="106"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="111">
+        <v>0</v>
+      </c>
+      <c r="F52" s="112"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="51"/>
+    </row>
+    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="108"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="53"/>
+      <c r="O53" s="54"/>
+    </row>
+    <row r="54" spans="1:15" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="F54" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="25"/>
+    </row>
+    <row r="55" spans="1:15" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="F55" s="117" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="117"/>
+      <c r="J55" s="117"/>
+      <c r="K55" s="117"/>
+      <c r="L55" s="117"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="117"/>
+      <c r="O55" s="118"/>
+    </row>
+    <row r="56" spans="1:15" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="117"/>
+      <c r="K56" s="117"/>
+      <c r="L56" s="117"/>
+      <c r="M56" s="117"/>
+      <c r="N56" s="117"/>
+      <c r="O56" s="118"/>
+    </row>
+    <row r="57" spans="1:15" s="14" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="28"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="F57" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="25"/>
+    </row>
+    <row r="58" spans="1:15" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="128"/>
+      <c r="C58" s="128"/>
+      <c r="D58" s="129"/>
+      <c r="E58" s="119">
+        <v>0</v>
+      </c>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="121"/>
+    </row>
+    <row r="59" spans="1:15" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="130"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="132"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="57"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="62"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="48"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-    </row>
-    <row r="10" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-    </row>
-    <row r="11" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-    </row>
-    <row r="16" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="48"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="82"/>
-      <c r="L18" s="85" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="88"/>
-      <c r="P18" s="19"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="96" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="97"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="98"/>
-      <c r="P19" s="19"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93">
-        <v>1</v>
-      </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="92">
-        <v>0</v>
-      </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92">
-        <v>0</v>
-      </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92">
-        <v>0</v>
-      </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92">
-        <v>0</v>
-      </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92">
-        <v>0</v>
-      </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92">
-        <v>0</v>
-      </c>
-      <c r="O20" s="92"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93">
-        <v>2</v>
-      </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="92">
-        <v>0</v>
-      </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92">
-        <v>0</v>
-      </c>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92">
-        <v>0</v>
-      </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92">
-        <v>0</v>
-      </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92">
-        <v>0</v>
-      </c>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92">
-        <v>0</v>
-      </c>
-      <c r="O21" s="92"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93">
-        <v>3</v>
-      </c>
-      <c r="B22" s="93"/>
-      <c r="C22" s="92">
-        <v>0</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92">
-        <v>0</v>
-      </c>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92">
-        <v>0</v>
-      </c>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92">
-        <v>0</v>
-      </c>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92">
-        <v>0</v>
-      </c>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92">
-        <v>0</v>
-      </c>
-      <c r="O22" s="92"/>
-    </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93">
-        <v>4</v>
-      </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92">
-        <v>0</v>
-      </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92">
-        <v>0</v>
-      </c>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92">
-        <v>0</v>
-      </c>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92">
-        <v>0</v>
-      </c>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92">
-        <v>0</v>
-      </c>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92">
-        <v>0</v>
-      </c>
-      <c r="O23" s="92"/>
-    </row>
-    <row r="24" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93">
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="100"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="100"/>
+      <c r="J61" s="100"/>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
+      <c r="N61" s="100"/>
+      <c r="O61" s="101"/>
+    </row>
+    <row r="62" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="92">
-        <v>0</v>
-      </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92">
-        <v>0</v>
-      </c>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92">
-        <v>0</v>
-      </c>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92">
-        <v>0</v>
-      </c>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92">
-        <v>0</v>
-      </c>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92">
-        <v>0</v>
-      </c>
-      <c r="O24" s="92"/>
-    </row>
-    <row r="25" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93">
-        <v>6</v>
-      </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="92">
-        <v>0</v>
-      </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92">
-        <v>0</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92">
-        <v>0</v>
-      </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92">
-        <v>0</v>
-      </c>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92">
-        <v>0</v>
-      </c>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92">
-        <v>0</v>
-      </c>
-      <c r="O25" s="92"/>
-    </row>
-    <row r="26" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93">
-        <v>7</v>
-      </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="92">
-        <v>0</v>
-      </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92">
-        <v>0</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92">
-        <v>0</v>
-      </c>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92">
-        <v>0</v>
-      </c>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92">
-        <v>0</v>
-      </c>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92">
-        <v>0</v>
-      </c>
-      <c r="O26" s="92"/>
-    </row>
-    <row r="27" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93">
-        <v>8</v>
-      </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="92">
-        <v>0</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92">
-        <v>0</v>
-      </c>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92">
-        <v>0</v>
-      </c>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92">
-        <v>0</v>
-      </c>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92">
-        <v>0</v>
-      </c>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92">
-        <v>0</v>
-      </c>
-      <c r="O27" s="92"/>
-    </row>
-    <row r="28" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93">
-        <v>9</v>
-      </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="92">
-        <v>0</v>
-      </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92">
-        <v>0</v>
-      </c>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92">
-        <v>0</v>
-      </c>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92">
-        <v>0</v>
-      </c>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92">
-        <v>0</v>
-      </c>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92">
-        <v>0</v>
-      </c>
-      <c r="O28" s="92"/>
-    </row>
-    <row r="29" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93">
-        <v>10</v>
-      </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92">
-        <v>0</v>
-      </c>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92">
-        <v>0</v>
-      </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92">
-        <v>0</v>
-      </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92">
-        <v>0</v>
-      </c>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92">
-        <v>0</v>
-      </c>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92">
-        <v>0</v>
-      </c>
-      <c r="O29" s="92"/>
-    </row>
-    <row r="30" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93">
-        <v>11</v>
-      </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="92">
-        <v>0</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92">
-        <v>0</v>
-      </c>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92">
-        <v>0</v>
-      </c>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92">
-        <v>0</v>
-      </c>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92">
-        <v>0</v>
-      </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92">
-        <v>0</v>
-      </c>
-      <c r="O30" s="92"/>
-    </row>
-    <row r="31" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93">
-        <v>12</v>
-      </c>
-      <c r="B31" s="93"/>
-      <c r="C31" s="92">
-        <v>0</v>
-      </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92">
-        <v>0</v>
-      </c>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92">
-        <v>0</v>
-      </c>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92">
-        <v>0</v>
-      </c>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92">
-        <v>0</v>
-      </c>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92">
-        <v>0</v>
-      </c>
-      <c r="O31" s="92"/>
-    </row>
-    <row r="32" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93">
-        <v>13</v>
-      </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="92">
-        <v>0</v>
-      </c>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92">
-        <v>0</v>
-      </c>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92">
-        <v>0</v>
-      </c>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92">
-        <v>0</v>
-      </c>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92">
-        <v>0</v>
-      </c>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92">
-        <v>0</v>
-      </c>
-      <c r="O32" s="92"/>
-    </row>
-    <row r="33" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93">
-        <v>14</v>
-      </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92">
-        <v>0</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92">
-        <v>0</v>
-      </c>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92">
-        <v>0</v>
-      </c>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92">
-        <v>0</v>
-      </c>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92">
-        <v>0</v>
-      </c>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92">
-        <v>0</v>
-      </c>
-      <c r="O33" s="92"/>
-    </row>
-    <row r="34" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93">
-        <v>15</v>
-      </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="92">
-        <v>0</v>
-      </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92">
-        <v>0</v>
-      </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92">
-        <v>0</v>
-      </c>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92">
-        <v>0</v>
-      </c>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92">
-        <v>0</v>
-      </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92">
-        <v>0</v>
-      </c>
-      <c r="O34" s="92"/>
-    </row>
-    <row r="35" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93">
-        <v>16</v>
-      </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="92">
-        <v>0</v>
-      </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92">
-        <v>0</v>
-      </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92">
-        <v>0</v>
-      </c>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92">
-        <v>0</v>
-      </c>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92">
-        <v>0</v>
-      </c>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92">
-        <v>0</v>
-      </c>
-      <c r="O35" s="92"/>
-    </row>
-    <row r="36" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="93">
-        <v>17</v>
-      </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="92">
-        <v>0</v>
-      </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92">
-        <v>0</v>
-      </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92">
-        <v>0</v>
-      </c>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92">
-        <v>0</v>
-      </c>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92">
-        <v>0</v>
-      </c>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92">
-        <v>0</v>
-      </c>
-      <c r="O36" s="92"/>
-    </row>
-    <row r="37" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93">
-        <v>18</v>
-      </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="92">
-        <v>0</v>
-      </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92">
-        <v>0</v>
-      </c>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92">
-        <v>0</v>
-      </c>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92">
-        <v>0</v>
-      </c>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92">
-        <v>0</v>
-      </c>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92">
-        <v>0</v>
-      </c>
-      <c r="O37" s="92"/>
-    </row>
-    <row r="38" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93">
-        <v>19</v>
-      </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="92">
-        <v>0</v>
-      </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92">
-        <v>0</v>
-      </c>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92">
-        <v>0</v>
-      </c>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92">
-        <v>0</v>
-      </c>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92">
-        <v>0</v>
-      </c>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92">
-        <v>0</v>
-      </c>
-      <c r="O38" s="92"/>
-    </row>
-    <row r="39" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93">
-        <v>20</v>
-      </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="92">
-        <v>0</v>
-      </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92">
-        <v>0</v>
-      </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92">
-        <v>0</v>
-      </c>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92">
-        <v>0</v>
-      </c>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92">
-        <v>0</v>
-      </c>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92">
-        <v>0</v>
-      </c>
-      <c r="O39" s="92"/>
-    </row>
-    <row r="40" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93">
-        <v>21</v>
-      </c>
-      <c r="B40" s="93"/>
-      <c r="C40" s="92">
-        <v>0</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92">
-        <v>0</v>
-      </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92">
-        <v>0</v>
-      </c>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92">
-        <v>0</v>
-      </c>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92">
-        <v>0</v>
-      </c>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92">
-        <v>0</v>
-      </c>
-      <c r="O40" s="92"/>
-    </row>
-    <row r="41" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93">
-        <v>22</v>
-      </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="92">
-        <v>0</v>
-      </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92">
-        <v>0</v>
-      </c>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92">
-        <v>0</v>
-      </c>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92">
-        <v>0</v>
-      </c>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92">
-        <v>0</v>
-      </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92">
-        <v>0</v>
-      </c>
-      <c r="O41" s="92"/>
-    </row>
-    <row r="42" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93">
-        <v>23</v>
-      </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="92">
-        <v>0</v>
-      </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92">
-        <v>0</v>
-      </c>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92">
-        <v>0</v>
-      </c>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92">
-        <v>0</v>
-      </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92">
-        <v>0</v>
-      </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92">
-        <v>0</v>
-      </c>
-      <c r="O42" s="92"/>
-    </row>
-    <row r="43" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93">
-        <v>24</v>
-      </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="92">
-        <v>0</v>
-      </c>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92">
-        <v>0</v>
-      </c>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92">
-        <v>0</v>
-      </c>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92">
-        <v>0</v>
-      </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92">
-        <v>0</v>
-      </c>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92">
-        <v>0</v>
-      </c>
-      <c r="O43" s="92"/>
-    </row>
-    <row r="44" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93">
-        <v>25</v>
-      </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="92">
-        <v>0</v>
-      </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92">
-        <v>0</v>
-      </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92">
-        <v>0</v>
-      </c>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92">
-        <v>0</v>
-      </c>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92">
-        <v>0</v>
-      </c>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92">
-        <v>0</v>
-      </c>
-      <c r="O44" s="92"/>
-    </row>
-    <row r="45" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93">
-        <v>26</v>
-      </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="92">
-        <v>0</v>
-      </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92">
-        <v>0</v>
-      </c>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92">
-        <v>0</v>
-      </c>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92">
-        <v>0</v>
-      </c>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92">
-        <v>0</v>
-      </c>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92">
-        <v>0</v>
-      </c>
-      <c r="O45" s="92"/>
-    </row>
-    <row r="46" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="93">
-        <v>27</v>
-      </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="92">
-        <v>0</v>
-      </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92">
-        <v>0</v>
-      </c>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92">
-        <v>0</v>
-      </c>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92">
-        <v>0</v>
-      </c>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92">
-        <v>0</v>
-      </c>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92">
-        <v>0</v>
-      </c>
-      <c r="O46" s="92"/>
-    </row>
-    <row r="47" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93">
-        <v>28</v>
-      </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="92">
-        <v>0</v>
-      </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92">
-        <v>0</v>
-      </c>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92">
-        <v>0</v>
-      </c>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92">
-        <v>0</v>
-      </c>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92">
-        <v>0</v>
-      </c>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92">
-        <v>0</v>
-      </c>
-      <c r="O47" s="92"/>
-    </row>
-    <row r="48" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93">
-        <v>29</v>
-      </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="92">
-        <v>0</v>
-      </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92">
-        <v>0</v>
-      </c>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92">
-        <v>0</v>
-      </c>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92">
-        <v>0</v>
-      </c>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92">
-        <v>0</v>
-      </c>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92">
-        <v>0</v>
-      </c>
-      <c r="O48" s="92"/>
-    </row>
-    <row r="49" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93">
-        <v>30</v>
-      </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="92">
-        <v>0</v>
-      </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92">
-        <v>0</v>
-      </c>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92">
-        <v>0</v>
-      </c>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92">
-        <v>0</v>
-      </c>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92">
-        <v>0</v>
-      </c>
-      <c r="M49" s="92"/>
-      <c r="N49" s="92">
-        <v>0</v>
-      </c>
-      <c r="O49" s="92"/>
-    </row>
-    <row r="50" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93">
-        <v>31</v>
-      </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="92">
-        <v>0</v>
-      </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92">
-        <v>0</v>
-      </c>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="104">
-        <v>0</v>
-      </c>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104">
-        <v>0</v>
-      </c>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104">
-        <v>0</v>
-      </c>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104">
-        <v>0</v>
-      </c>
-      <c r="O50" s="104"/>
-    </row>
-    <row r="51" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="105">
-        <f>SUM(C20:D50)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="105">
-        <f>SUM(E20:G50)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="106"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="113">
-        <v>0</v>
-      </c>
-      <c r="F52" s="114"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="138"/>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="139"/>
-    </row>
-    <row r="53" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="110"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="141"/>
-      <c r="J53" s="141"/>
-      <c r="K53" s="141"/>
-      <c r="L53" s="141"/>
-      <c r="M53" s="141"/>
-      <c r="N53" s="141"/>
-      <c r="O53" s="142"/>
-    </row>
-    <row r="54" spans="1:15" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="B62" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
-      <c r="F54" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="33"/>
-    </row>
-    <row r="55" spans="1:15" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
-      <c r="F55" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="120"/>
-    </row>
-    <row r="56" spans="1:15" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="120"/>
-    </row>
-    <row r="57" spans="1:15" s="22" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="35"/>
-      <c r="F57" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="33"/>
-    </row>
-    <row r="58" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="130"/>
-      <c r="C58" s="130"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="121">
-        <v>0</v>
-      </c>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-      <c r="M58" s="122"/>
-      <c r="N58" s="122"/>
-      <c r="O58" s="123"/>
-    </row>
-    <row r="59" spans="1:15" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="132"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="134"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="39"/>
-    </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="53"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="63"/>
-    </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="127"/>
-      <c r="C61" s="127"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="102"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="102"/>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102"/>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
-      <c r="O61" s="103"/>
-    </row>
-    <row r="62" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3380,199 +3405,199 @@
       <c r="A63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="124" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="125"/>
-      <c r="M63" s="125"/>
-      <c r="N63" s="125"/>
-      <c r="O63" s="126"/>
+      <c r="B63" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="123"/>
+      <c r="I63" s="123"/>
+      <c r="J63" s="123"/>
+      <c r="K63" s="123"/>
+      <c r="L63" s="123"/>
+      <c r="M63" s="123"/>
+      <c r="N63" s="123"/>
+      <c r="O63" s="124"/>
     </row>
     <row r="64" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="125"/>
-      <c r="N64" s="125"/>
-      <c r="O64" s="126"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="123"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="123"/>
+      <c r="F64" s="123"/>
+      <c r="G64" s="123"/>
+      <c r="H64" s="123"/>
+      <c r="I64" s="123"/>
+      <c r="J64" s="123"/>
+      <c r="K64" s="123"/>
+      <c r="L64" s="123"/>
+      <c r="M64" s="123"/>
+      <c r="N64" s="123"/>
+      <c r="O64" s="124"/>
     </row>
     <row r="65" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="125"/>
-      <c r="M65" s="125"/>
-      <c r="N65" s="125"/>
-      <c r="O65" s="126"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="123"/>
+      <c r="F65" s="123"/>
+      <c r="G65" s="123"/>
+      <c r="H65" s="123"/>
+      <c r="I65" s="123"/>
+      <c r="J65" s="123"/>
+      <c r="K65" s="123"/>
+      <c r="L65" s="123"/>
+      <c r="M65" s="123"/>
+      <c r="N65" s="123"/>
+      <c r="O65" s="124"/>
     </row>
     <row r="66" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="6"/>
-    </row>
-    <row r="67" spans="1:15" s="22" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="B66" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="31"/>
+    </row>
+    <row r="67" spans="1:15" s="14" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="135" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="135"/>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="135"/>
-      <c r="O67" s="136"/>
-    </row>
-    <row r="68" spans="1:15" s="22" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23"/>
-      <c r="B68" s="135"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="135"/>
-      <c r="H68" s="135"/>
-      <c r="I68" s="135"/>
-      <c r="J68" s="135"/>
-      <c r="K68" s="135"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
-      <c r="N68" s="135"/>
-      <c r="O68" s="136"/>
-    </row>
-    <row r="69" spans="1:15" s="22" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="26"/>
-    </row>
-    <row r="70" spans="1:15" s="22" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B70" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="99"/>
-      <c r="M70" s="99"/>
-      <c r="N70" s="99"/>
-      <c r="O70" s="100"/>
-    </row>
-    <row r="71" spans="1:15" s="22" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="23"/>
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99"/>
-      <c r="K71" s="99"/>
-      <c r="L71" s="99"/>
-      <c r="M71" s="99"/>
-      <c r="N71" s="99"/>
-      <c r="O71" s="100"/>
+      <c r="B67" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="133"/>
+      <c r="D67" s="133"/>
+      <c r="E67" s="133"/>
+      <c r="F67" s="133"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="133"/>
+      <c r="O67" s="134"/>
+    </row>
+    <row r="68" spans="1:15" s="14" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="133"/>
+      <c r="E68" s="133"/>
+      <c r="F68" s="133"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="133"/>
+      <c r="K68" s="133"/>
+      <c r="L68" s="133"/>
+      <c r="M68" s="133"/>
+      <c r="N68" s="133"/>
+      <c r="O68" s="134"/>
+    </row>
+    <row r="69" spans="1:15" s="14" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="18"/>
+    </row>
+    <row r="70" spans="1:15" s="14" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="97"/>
+      <c r="O70" s="98"/>
+    </row>
+    <row r="71" spans="1:15" s="14" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="15"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="97"/>
+      <c r="O71" s="98"/>
     </row>
     <row r="72" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="43"/>
-    </row>
-    <row r="74" spans="1:15" s="22" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="s">
-        <v>54</v>
+      <c r="A72" s="10"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="33"/>
+    </row>
+    <row r="74" spans="1:15" s="14" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="279">
+  <mergeCells count="280">
     <mergeCell ref="B70:O71"/>
     <mergeCell ref="E61:O61"/>
     <mergeCell ref="N50:O50"/>
@@ -3594,7 +3619,6 @@
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="J50:K50"/>
     <mergeCell ref="B67:O68"/>
-    <mergeCell ref="H52:O53"/>
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -3809,6 +3833,7 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A15:O15"/>
     <mergeCell ref="A16:O16"/>
     <mergeCell ref="A17:B19"/>
     <mergeCell ref="C17:D18"/>
@@ -3819,6 +3844,8 @@
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="H17:O17"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="E14:H14"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="K14:O14"/>
     <mergeCell ref="A10:O10"/>
@@ -3827,7 +3854,6 @@
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:O12"/>
-    <mergeCell ref="A15:O15"/>
     <mergeCell ref="B72:O72"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
@@ -3838,6 +3864,8 @@
     <mergeCell ref="D6:O6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:O3"/>
+    <mergeCell ref="H51:O53"/>
+    <mergeCell ref="E59:O59"/>
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:G8"/>
@@ -3850,8 +3878,6 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="E14:H14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4037,5 +4063,8 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
+  <webPublishItems count="1">
+    <webPublishItem id="20090" divId="T26TimeSheet_20090" sourceType="sheet" destinationFile="D:\Users\chungwm2\Documents\Timeshsheet\T26TimeSheet.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>